--- a/doc/dvt/bring-up.xlsx
+++ b/doc/dvt/bring-up.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="45">
   <si>
     <t>P5V</t>
   </si>
@@ -50,21 +50,6 @@
     <t>From</t>
   </si>
   <si>
-    <r>
-      <t>Resistance (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ω)</t>
-    </r>
-  </si>
-  <si>
     <t>Component</t>
   </si>
   <si>
@@ -120,9 +105,6 @@
   </si>
   <si>
     <t>Characterize Voltage Rails (Nominal Operation)*</t>
-  </si>
-  <si>
-    <t>Rise Time (us)</t>
   </si>
   <si>
     <t>Overshoot (%)</t>
@@ -164,9 +146,6 @@
     <t>Characterize Laser Diode Operation*</t>
   </si>
   <si>
-    <t>Set Vref for I limit*</t>
-  </si>
-  <si>
     <t>P5V_LSR (switch off)</t>
   </si>
   <si>
@@ -174,6 +153,36 @@
   </si>
   <si>
     <t>Check Impedances</t>
+  </si>
+  <si>
+    <t>JLA</t>
+  </si>
+  <si>
+    <r>
+      <t>Resistance (Mega</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ω)</t>
+    </r>
+  </si>
+  <si>
+    <t>Set Vref for I limit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Rise Time (ms)</t>
+  </si>
+  <si>
+    <t>USB power</t>
   </si>
 </sst>
 </file>
@@ -257,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -279,6 +288,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -593,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -604,17 +614,18 @@
     <col min="1" max="1" width="22.4609375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.53515625" style="6" customWidth="1"/>
     <col min="3" max="4" width="13.53515625" customWidth="1"/>
-    <col min="5" max="6" width="9.23046875" style="1"/>
+    <col min="5" max="5" width="9.23046875" style="1"/>
+    <col min="6" max="6" width="9.3828125" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.23046875" style="5"/>
     <col min="8" max="16384" width="9.23046875" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="8" customFormat="1" ht="29.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -625,42 +636,72 @@
         <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K1" s="9"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B2" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="11">
+        <v>42766</v>
       </c>
       <c r="N2" s="10"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B3" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="11">
+        <v>42765</v>
       </c>
       <c r="K3" s="8"/>
       <c r="N3" s="10"/>
     </row>
     <row r="4" spans="1:14" ht="116.6" x14ac:dyDescent="0.4">
       <c r="B4" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="11">
+        <v>42766</v>
       </c>
       <c r="K4" s="8"/>
       <c r="N4" s="10"/>
     </row>
     <row r="5" spans="1:14" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="B5" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="11">
+        <v>42765</v>
       </c>
       <c r="N5" s="10"/>
     </row>
     <row r="6" spans="1:14" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B6" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="11">
+        <v>42765</v>
       </c>
       <c r="N6" s="10"/>
     </row>
@@ -668,69 +709,102 @@
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="E7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="11">
+        <v>42765</v>
+      </c>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="11">
+        <v>42766</v>
+      </c>
       <c r="N8" s="10"/>
     </row>
-    <row r="9" spans="1:14" s="8" customFormat="1" ht="29.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="3" t="s">
+    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="N9" s="10"/>
+    </row>
+    <row r="10" spans="1:14" s="8" customFormat="1" ht="29.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9" s="9"/>
-      <c r="N9" s="10"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B10" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
+      <c r="G10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="9"/>
       <c r="N10" s="10"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B11" s="6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
       </c>
+      <c r="D11">
+        <v>4.18</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="11">
+        <v>42766</v>
+      </c>
       <c r="N11" s="10"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B12" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
       </c>
+      <c r="D12">
+        <v>4.3</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="11">
+        <v>42766</v>
+      </c>
       <c r="N12" s="10"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B13" s="6" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>5.25</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="11">
+        <v>42766</v>
       </c>
       <c r="N13" s="10"/>
     </row>
@@ -741,6 +815,15 @@
       <c r="C14" t="s">
         <v>3</v>
       </c>
+      <c r="D14">
+        <v>6.23</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="11">
+        <v>42766</v>
+      </c>
       <c r="N14" s="10"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
@@ -750,166 +833,293 @@
       <c r="C15" t="s">
         <v>2</v>
       </c>
+      <c r="D15">
+        <v>8.89</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="11">
+        <v>42766</v>
+      </c>
       <c r="N15" s="10"/>
     </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="17" spans="1:14" s="8" customFormat="1" ht="29.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="2" t="s">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B16" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>9.4</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="11">
+        <v>42766</v>
+      </c>
+      <c r="N16" s="10"/>
+    </row>
+    <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="18" spans="1:14" s="8" customFormat="1" ht="29.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" s="9"/>
+      <c r="N18" s="10"/>
+    </row>
+    <row r="19" spans="1:14" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="11">
+        <v>42766</v>
+      </c>
+      <c r="N19" s="10"/>
+    </row>
+    <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="21" spans="1:14" s="8" customFormat="1" ht="29.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="4" t="s">
+      <c r="D21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F21" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K17" s="9"/>
-      <c r="N17" s="10"/>
-    </row>
-    <row r="18" spans="1:14" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="N18" s="10"/>
-    </row>
-    <row r="19" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="20" spans="1:14" s="8" customFormat="1" ht="29.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K20" s="9"/>
-      <c r="N20" s="10"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B21" s="6" t="s">
-        <v>0</v>
-      </c>
+      <c r="G21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" s="9"/>
       <c r="N21" s="10"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B22" s="6" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>4.6950000000000003</v>
+      </c>
+      <c r="D22">
+        <v>25</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="11">
+        <v>42768</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="N22" s="10"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B23" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>3.2850000000000001</v>
+      </c>
+      <c r="D23">
+        <v>20</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="11">
+        <v>42768</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N23" s="10"/>
+    </row>
+    <row r="24" spans="1:14" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B24" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="D24">
+        <v>11</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="11">
+        <v>42768</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N24" s="10"/>
+    </row>
+    <row r="25" spans="1:14" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B25" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25">
+        <v>4.9630000000000001</v>
+      </c>
+      <c r="D25">
+        <v>13</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="11">
+        <v>42768</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="27" spans="1:14" s="8" customFormat="1" ht="29.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="9"/>
+      <c r="N27" s="10"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B28" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>1.6</v>
+      </c>
+      <c r="D28">
+        <f>0.125/4.695*100</f>
+        <v>2.662406815761448</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="11">
+        <v>42768</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N28" s="10"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B29" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>2.8</v>
+      </c>
+      <c r="D29">
+        <f>0.1875/3.312*100</f>
+        <v>5.6612318840579707</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="11">
+        <v>42768</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N29" s="10"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B30" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="25" spans="1:14" s="8" customFormat="1" ht="29.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="D30" s="5">
+        <f>0.0625/4.963*100</f>
+        <v>1.2593189603062664</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" s="11">
+        <v>42768</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N30" s="10"/>
+    </row>
+    <row r="31" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="N31" s="10"/>
+    </row>
+    <row r="32" spans="1:14" s="8" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K25" s="9"/>
-      <c r="N25" s="10"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B26" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="N26" s="10"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B27" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="N27" s="10"/>
-    </row>
-    <row r="28" spans="1:14" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="B28" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="N28" s="10"/>
-    </row>
-    <row r="29" spans="1:14" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="B29" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="N30" s="10"/>
-    </row>
-    <row r="31" spans="1:14" s="8" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K31" s="9"/>
-      <c r="N31" s="10"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B32" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>3.3</v>
-      </c>
+      <c r="K32" s="9"/>
       <c r="N32" s="10"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.4">
@@ -917,10 +1127,16 @@
         <v>6</v>
       </c>
       <c r="C33">
-        <v>4.7</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="D33">
-        <v>1.65</v>
+        <v>2.78</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" s="11">
+        <v>42768</v>
       </c>
       <c r="N33" s="10"/>
     </row>
@@ -929,43 +1145,61 @@
         <v>6</v>
       </c>
       <c r="C34">
-        <v>10</v>
+        <v>3.18</v>
       </c>
       <c r="D34">
-        <v>1.0549999999999999</v>
-      </c>
-      <c r="I34" s="10"/>
-    </row>
-    <row r="35" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="36" spans="1:14" s="8" customFormat="1" ht="29.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="4" t="s">
+        <v>1.65</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F34" s="11">
+        <v>42768</v>
+      </c>
+      <c r="N34" s="10"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B35" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35">
+        <v>7.8460000000000001</v>
+      </c>
+      <c r="D35">
+        <v>1.03</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F35" s="11">
+        <v>42768</v>
+      </c>
+      <c r="I35" s="10"/>
+    </row>
+    <row r="36" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="37" spans="1:14" s="8" customFormat="1" ht="29.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F37" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G36" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K36" s="9"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B37" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N37" s="10"/>
+      <c r="G37" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K37" s="9"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B38" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K38" s="8"/>
       <c r="N38" s="10"/>
@@ -976,16 +1210,16 @@
     </row>
     <row r="40" spans="1:14" s="8" customFormat="1" ht="29.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>4</v>
@@ -994,13 +1228,13 @@
         <v>5</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K40" s="9"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B41" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C41">
         <v>1.3</v>
@@ -1012,7 +1246,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B42" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C42">
         <v>1.4</v>
@@ -1025,7 +1259,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B43" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C43">
         <v>1.5</v>
@@ -1038,7 +1272,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B44" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C44">
         <v>1.75</v>
@@ -1051,7 +1285,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B45" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C45">
         <v>1.8</v>
@@ -1067,10 +1301,10 @@
     </row>
     <row r="47" spans="1:14" s="8" customFormat="1" ht="29.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A47" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -1081,24 +1315,29 @@
         <v>5</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K47" s="9"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B48" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N48" s="10"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B49" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="K1:K34">
-    <sortCondition ref="K1:K34"/>
+  <sortState ref="K1:K35">
+    <sortCondition ref="K1:K35"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
